--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9043393333333335</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H2">
-        <v>2.713018</v>
+        <v>0.098204</v>
       </c>
       <c r="I2">
-        <v>0.5538994939397101</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="J2">
-        <v>0.5538994939397102</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>1.182067971528889</v>
+        <v>0.01403475919066667</v>
       </c>
       <c r="R2">
-        <v>10.63861174376</v>
+        <v>0.126312832716</v>
       </c>
       <c r="S2">
-        <v>0.006958435257801642</v>
+        <v>0.0003444676773873962</v>
       </c>
       <c r="T2">
-        <v>0.006958435257801643</v>
+        <v>0.0003444676773873962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9043393333333335</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H3">
-        <v>2.713018</v>
+        <v>0.098204</v>
       </c>
       <c r="I3">
-        <v>0.5538994939397101</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="J3">
-        <v>0.5538994939397102</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>72.55174168442203</v>
+        <v>2.626179126115999</v>
       </c>
       <c r="R3">
-        <v>652.9656751597981</v>
+        <v>23.635612135044</v>
       </c>
       <c r="S3">
-        <v>0.4270876206034325</v>
+        <v>0.06445666873843021</v>
       </c>
       <c r="T3">
-        <v>0.4270876206034326</v>
+        <v>0.06445666873843021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9043393333333335</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H4">
-        <v>2.713018</v>
+        <v>0.098204</v>
       </c>
       <c r="I4">
-        <v>0.5538994939397101</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="J4">
-        <v>0.5538994939397102</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>20.36016793737423</v>
+        <v>0.7658644404591112</v>
       </c>
       <c r="R4">
-        <v>183.241511436368</v>
+        <v>6.892779964132</v>
       </c>
       <c r="S4">
-        <v>0.1198534380784759</v>
+        <v>0.01879729758199123</v>
       </c>
       <c r="T4">
-        <v>0.119853438078476</v>
+        <v>0.01879729758199123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.399384</v>
       </c>
       <c r="I5">
-        <v>0.08153967112920635</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="J5">
-        <v>0.08153967112920636</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>0.17401249632</v>
+        <v>0.05707769810400001</v>
       </c>
       <c r="R5">
-        <v>1.56611246688</v>
+        <v>0.5136992829360001</v>
       </c>
       <c r="S5">
-        <v>0.001024352845061054</v>
+        <v>0.001400909116387192</v>
       </c>
       <c r="T5">
-        <v>0.001024352845061054</v>
+        <v>0.001400909116387193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.399384</v>
       </c>
       <c r="I6">
-        <v>0.08153967112920635</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="J6">
-        <v>0.08153967112920636</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
         <v>10.680358479336</v>
       </c>
       <c r="R6">
-        <v>96.12322631402401</v>
+        <v>96.123226314024</v>
       </c>
       <c r="S6">
-        <v>0.06287166626505289</v>
+        <v>0.2621376134111564</v>
       </c>
       <c r="T6">
-        <v>0.0628716662650529</v>
+        <v>0.2621376134111565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.399384</v>
       </c>
       <c r="I7">
-        <v>0.08153967112920635</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="J7">
-        <v>0.08153967112920636</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>2.997224976576</v>
+        <v>3.114679684008</v>
       </c>
       <c r="R7">
-        <v>26.975024789184</v>
+        <v>28.032117156072</v>
       </c>
       <c r="S7">
-        <v>0.0176436520190924</v>
+        <v>0.07644637588576826</v>
       </c>
       <c r="T7">
-        <v>0.0176436520190924</v>
+        <v>0.07644637588576826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5952103333333333</v>
+        <v>0.2257076666666666</v>
       </c>
       <c r="H8">
-        <v>1.785631</v>
+        <v>0.6771229999999999</v>
       </c>
       <c r="I8">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="J8">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>0.7780033947688888</v>
+        <v>0.09677058212966666</v>
       </c>
       <c r="R8">
-        <v>7.00203055292</v>
+        <v>0.8709352391669999</v>
       </c>
       <c r="S8">
-        <v>0.00457984344660581</v>
+        <v>0.002375127154857092</v>
       </c>
       <c r="T8">
-        <v>0.004579843446605811</v>
+        <v>0.002375127154857092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5952103333333333</v>
+        <v>0.2257076666666666</v>
       </c>
       <c r="H9">
-        <v>1.785631</v>
+        <v>0.6771229999999999</v>
       </c>
       <c r="I9">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="J9">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>47.751485266849</v>
+        <v>18.10767675871699</v>
       </c>
       <c r="R9">
-        <v>429.763367401641</v>
+        <v>162.9690908284529</v>
       </c>
       <c r="S9">
-        <v>0.2810968799564646</v>
+        <v>0.4444329447494203</v>
       </c>
       <c r="T9">
-        <v>0.2810968799564647</v>
+        <v>0.4444329447494203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5952103333333333</v>
+        <v>0.2257076666666666</v>
       </c>
       <c r="H10">
-        <v>1.785631</v>
+        <v>0.6771229999999999</v>
       </c>
       <c r="I10">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="J10">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>13.40048132160622</v>
+        <v>5.280685384678778</v>
       </c>
       <c r="R10">
-        <v>120.604331894456</v>
+        <v>47.526168462109</v>
       </c>
       <c r="S10">
-        <v>0.07888411152801308</v>
+        <v>0.129608595684602</v>
       </c>
       <c r="T10">
-        <v>0.0788841115280131</v>
+        <v>0.129608595684602</v>
       </c>
     </row>
   </sheetData>
